--- a/biology/Zoologie/Dinosaures_du_Crystal_Palace/Dinosaures_du_Crystal_Palace.xlsx
+++ b/biology/Zoologie/Dinosaures_du_Crystal_Palace/Dinosaures_du_Crystal_Palace.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les dinosaures du Crystal Palace sont une série de sculptures représentant des espèces animales éteintes, principalement (mais pas uniquement) des dinosaures. 
 Elles sont exposées en plein air au Crystal Palace Park (en) de Londres. Ce sont les toutes premières sculptures de dinosaures au monde : réalisées par le sculpteur Benjamin Waterhouse Hawkins sous la direction du paléontologue Richard Owen, elles ont été commandées en 1852, pour accompagner le déménagement du Crystal Palace après l'exposition universelle de 1851, et inaugurées en 1854. Elles témoignent de l'état de l'art à cette époque, et les progrès de la paléontologie sont venus infirmer plusieurs des reconstitutions d'Owen. Après une restauration extensive en 2002, les sculptures sont protégées en tant que monument classé de Grade I depuis 2007.
@@ -515,10 +527,49 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Paléozoïque
-Dicynodon
-Mésozoïque
-Hylaeosaurus
+          <t>Paléozoïque</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Dicynodon</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dinosaures_du_Crystal_Palace</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dinosaures_du_Crystal_Palace</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des genres représentés</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mésozoïque</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hylaeosaurus
 Ichthyosaurus
 Iguanodon
 Labyrinthodon
@@ -526,9 +577,43 @@
 Mosasaurus
 Plesiosaurus
 Pterodactylus
-Teleosaurus
-Cénozoïque
-Anoplotherium
+Teleosaurus</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dinosaures_du_Crystal_Palace</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dinosaures_du_Crystal_Palace</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des genres représentés</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cénozoïque</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Anoplotherium
 Megaloceros
 Megatherium
 Palaeotherium</t>
